--- a/JummahManagement/branch.xlsx
+++ b/JummahManagement/branch.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\nirzaf\JMFW4\JummahManagement\JummahManagement\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E667DE7-03FE-419F-AA86-89158981FF2A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="203">
   <si>
     <t>SLTJ/BR/000</t>
   </si>
@@ -520,9 +526,6 @@
   </si>
   <si>
     <t>0776560588     </t>
-  </si>
-  <si>
-    <t>Meepitiya</t>
   </si>
   <si>
     <t>Kegalle</t>
@@ -633,8 +636,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -677,6 +680,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -723,7 +734,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -755,9 +766,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -789,6 +818,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -964,16 +1011,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I41"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="30">
+    <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -993,12 +1040,8 @@
       <c r="G1" s="2">
         <v>0</v>
       </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="30">
+    </row>
+    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>6</v>
@@ -1015,15 +1058,11 @@
       <c r="F2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="2">
-        <v>0</v>
-      </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="30">
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="2" t="s">
         <v>10</v>
@@ -1040,15 +1079,11 @@
       <c r="F3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="2">
-        <v>0</v>
-      </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="30">
+    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
         <v>14</v>
@@ -1065,15 +1100,11 @@
       <c r="F4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="2">
-        <v>0</v>
-      </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="30">
+    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="2" t="s">
         <v>18</v>
@@ -1090,15 +1121,11 @@
       <c r="F5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="2">
-        <v>0</v>
-      </c>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="30">
+    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="2" t="s">
         <v>22</v>
@@ -1115,15 +1142,11 @@
       <c r="F6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="2">
-        <v>0</v>
-      </c>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="30">
+    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="2" t="s">
         <v>26</v>
@@ -1140,15 +1163,11 @@
       <c r="F7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G7" s="2">
-        <v>0</v>
-      </c>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="30">
+    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="2" t="s">
         <v>32</v>
@@ -1165,15 +1184,11 @@
       <c r="F8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="2">
-        <v>0</v>
-      </c>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="45">
+    <row r="9" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="2" t="s">
         <v>37</v>
@@ -1190,15 +1205,11 @@
       <c r="F9" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G9" s="2">
-        <v>0</v>
-      </c>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2" t="s">
+      <c r="G9" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="30">
+    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="2" t="s">
         <v>42</v>
@@ -1215,15 +1226,11 @@
       <c r="F10" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G10" s="2">
-        <v>0</v>
-      </c>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2" t="s">
+      <c r="G10" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="45">
+    <row r="11" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="2" t="s">
         <v>46</v>
@@ -1240,15 +1247,11 @@
       <c r="F11" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G11" s="2">
-        <v>0</v>
-      </c>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2" t="s">
+      <c r="G11" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="45">
+    <row r="12" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="2" t="s">
         <v>52</v>
@@ -1265,15 +1268,11 @@
       <c r="F12" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G12" s="2">
-        <v>0</v>
-      </c>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2" t="s">
+      <c r="G12" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="30">
+    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="2" t="s">
         <v>57</v>
@@ -1290,15 +1289,11 @@
       <c r="F13" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="G13" s="2">
-        <v>0</v>
-      </c>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2" t="s">
+      <c r="G13" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="30">
+    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="2" t="s">
         <v>63</v>
@@ -1315,15 +1310,11 @@
       <c r="F14" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="G14" s="2">
-        <v>0</v>
-      </c>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2" t="s">
+      <c r="G14" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="30">
+    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="2" t="s">
         <v>67</v>
@@ -1340,15 +1331,11 @@
       <c r="F15" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="G15" s="2">
-        <v>0</v>
-      </c>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2" t="s">
+      <c r="G15" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="45">
+    <row r="16" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="2" t="s">
         <v>73</v>
@@ -1365,15 +1352,11 @@
       <c r="F16" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="G16" s="2">
-        <v>0</v>
-      </c>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2" t="s">
+      <c r="G16" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="45">
+    <row r="17" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="2" t="s">
         <v>79</v>
@@ -1390,15 +1373,11 @@
       <c r="F17" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="G17" s="2">
-        <v>0</v>
-      </c>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2" t="s">
+      <c r="G17" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="30">
+    <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="2" t="s">
         <v>84</v>
@@ -1415,15 +1394,11 @@
       <c r="F18" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="G18" s="2">
-        <v>0</v>
-      </c>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2" t="s">
+      <c r="G18" s="2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="30">
+    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="2" t="s">
         <v>89</v>
@@ -1440,15 +1415,11 @@
       <c r="F19" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="G19" s="2">
-        <v>0</v>
-      </c>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2" t="s">
+      <c r="G19" s="2" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="30">
+    <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="2" t="s">
         <v>94</v>
@@ -1465,15 +1436,11 @@
       <c r="F20" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="G20" s="2">
-        <v>0</v>
-      </c>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2" t="s">
+      <c r="G20" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="30">
+    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="2" t="s">
         <v>100</v>
@@ -1490,15 +1457,11 @@
       <c r="F21" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="G21" s="2">
-        <v>0</v>
-      </c>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2" t="s">
+      <c r="G21" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="30">
+    <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="2" t="s">
         <v>105</v>
@@ -1515,15 +1478,11 @@
       <c r="F22" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G22" s="2">
-        <v>0</v>
-      </c>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2" t="s">
+      <c r="G22" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="45">
+    <row r="23" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="2" t="s">
         <v>109</v>
@@ -1540,15 +1499,11 @@
       <c r="F23" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="G23" s="2">
-        <v>0</v>
-      </c>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2" t="s">
+      <c r="G23" s="2" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="30">
+    <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="2" t="s">
         <v>114</v>
@@ -1565,15 +1520,11 @@
       <c r="F24" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="G24" s="2">
-        <v>0</v>
-      </c>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2" t="s">
+      <c r="G24" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="30">
+    <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="2" t="s">
         <v>119</v>
@@ -1590,15 +1541,11 @@
       <c r="F25" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="G25" s="2">
-        <v>0</v>
-      </c>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2" t="s">
+      <c r="G25" s="2" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="30">
+    <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="2" t="s">
         <v>124</v>
@@ -1615,15 +1562,11 @@
       <c r="F26" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="G26" s="2">
-        <v>0</v>
-      </c>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2" t="s">
+      <c r="G26" s="2" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="30">
+    <row r="27" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="2" t="s">
         <v>129</v>
@@ -1640,15 +1583,11 @@
       <c r="F27" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="G27" s="2">
-        <v>0</v>
-      </c>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2" t="s">
+      <c r="G27" s="2" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="30">
+    <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="2" t="s">
         <v>135</v>
@@ -1665,15 +1604,11 @@
       <c r="F28" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="G28" s="2">
-        <v>0</v>
-      </c>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2" t="s">
+      <c r="G28" s="2" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="30">
+    <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="2" t="s">
         <v>140</v>
@@ -1690,15 +1625,11 @@
       <c r="F29" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="G29" s="2">
-        <v>0</v>
-      </c>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2" t="s">
+      <c r="G29" s="2" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="45">
+    <row r="30" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="2" t="s">
         <v>146</v>
@@ -1715,15 +1646,11 @@
       <c r="F30" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="G30" s="2">
-        <v>0</v>
-      </c>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2" t="s">
+      <c r="G30" s="2" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="60">
+    <row r="31" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="2" t="s">
         <v>151</v>
@@ -1740,15 +1667,11 @@
       <c r="F31" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="G31" s="2">
-        <v>0</v>
-      </c>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2" t="s">
+      <c r="G31" s="2" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="30">
+    <row r="32" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="2" t="s">
         <v>156</v>
@@ -1765,15 +1688,11 @@
       <c r="F32" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G32" s="2">
-        <v>0</v>
-      </c>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2" t="s">
+      <c r="G32" s="2" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="30">
+    <row r="33" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="2" t="s">
         <v>160</v>
@@ -1790,15 +1709,11 @@
       <c r="F33" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="G33" s="2">
-        <v>0</v>
-      </c>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2" t="s">
+      <c r="G33" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="30">
+    <row r="34" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="2" t="s">
         <v>164</v>
@@ -1815,187 +1730,153 @@
       <c r="F34" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G34" s="2">
-        <v>420</v>
-      </c>
-      <c r="H34" s="2" t="s">
+      <c r="G34" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="I34" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="30">
+    </row>
+    <row r="35" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="D35" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="E35" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="F35" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="F35" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="G35" s="2">
-        <v>0</v>
-      </c>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="30">
+      <c r="G35" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="D36" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="E36" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="F36" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="F36" s="2" t="s">
+      <c r="G36" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="G36" s="2">
-        <v>0</v>
-      </c>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="45">
+    </row>
+    <row r="37" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="D37" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="E37" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="F37" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="F37" s="2" t="s">
+      <c r="G37" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="G37" s="2">
-        <v>0</v>
-      </c>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="30">
+    </row>
+    <row r="38" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="D38" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="E38" s="2" t="s">
         <v>189</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>190</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G38" s="2">
-        <v>0</v>
-      </c>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="30">
+      <c r="G38" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>192</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>193</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>107</v>
       </c>
       <c r="E39" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="G39" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="F39" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="G39" s="2">
-        <v>0</v>
-      </c>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="30">
+    </row>
+    <row r="40" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="D40" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="E40" s="2" t="s">
         <v>198</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>199</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G40" s="2">
-        <v>0</v>
-      </c>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
-    </row>
-    <row r="41" spans="1:9" ht="30">
+      <c r="G40" s="2"/>
+    </row>
+    <row r="41" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="D41" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="E41" s="2" t="s">
         <v>202</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>203</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="G41" s="2">
-        <v>0</v>
-      </c>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2" t="s">
-        <v>201</v>
+      <c r="G41" s="2" t="s">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -2004,24 +1885,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
